--- a/biology/Zoologie/Chrysobrycon/Chrysobrycon.xlsx
+++ b/biology/Zoologie/Chrysobrycon/Chrysobrycon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chrysobrycon est un genre de poissons d'eau douce téléostéens de la famille des Characidae (ordre des Characiformes).
 </t>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces du genre Chrysobrycon se rencontrent en Amérique du Sud[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces du genre Chrysobrycon se rencontrent en Amérique du Sud.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (18 septembre 2023)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (18 septembre 2023) :
 Chrysobrycon eliasi Vanegas-Ríos, Azpelicueta &amp; Ortega, 2011
 Chrysobrycon guahibo Vanegas-Ríos, Urbano-Bonilla &amp; Azpelicueta, 2015
 Chrysobrycon hesperus (Böhlke, 1958)
@@ -578,9 +594,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Chrysobrycon Weitzman (d) &amp; Menezes (d), 1998[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Chrysobrycon Weitzman (d) &amp; Menezes (d), 1998.
 </t>
         </is>
       </c>
@@ -609,9 +627,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom générique, Chrysobrycon, composé du grec ancien χρυσός, khrusós, « or », et du genre Brycon, préfixe ou suffixe souvent utilisé pour caractériser de petits characidés, fait référence à la couleur vert doré intense des mâles de l'espèce Chrysobrycon hesperus[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique, Chrysobrycon, composé du grec ancien χρυσός, khrusós, « or », et du genre Brycon, préfixe ou suffixe souvent utilisé pour caractériser de petits characidés, fait référence à la couleur vert doré intense des mâles de l'espèce Chrysobrycon hesperus.
 </t>
         </is>
       </c>
